--- a/biology/Biochimie/GTPase/GTPase.xlsx
+++ b/biology/Biochimie/GTPase/GTPase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les GTPases sont une classe importante d'enzymes qui catalysent l'hydrolyse de la guanosine triphosphate (GTP) pour donner une guanosine diphosphate (GDP) et un ion phosphate. La fixation du GTP est effectuée par un domaine très conservé dans l'évolution, appelé domaine G, caractéristique de l'ensemble de cette superfamille. Cette hydrolyse est en général couplée à un autre processus biologique, comme la transduction du signal dans la cellule. Les GTPases appartiennent à la catégorie EC 3.6.5 de la nomenclature internationale des enzymes.
 </t>
@@ -511,7 +523,9 @@
           <t>Exemples de GTPase</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">KRAS
  Portail de la biochimie                     </t>
